--- a/Documentation/Concepts.xlsx
+++ b/Documentation/Concepts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>STEST Command Concept</t>
   </si>
@@ -87,13 +90,28 @@
   </si>
   <si>
     <t>Test conditions: all 3 types of motors must be connected. In addition, special IO connector (provided by REFAST) must be used to check all IOs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer format: </t>
+  </si>
+  <si>
+    <t>E&lt;CR&gt;&lt;LF&gt;</t>
+  </si>
+  <si>
+    <t>X,error flag step 1, error flag step 2, error flag step 3, error flag step n&lt;CR&gt;&lt;LF&gt;</t>
+  </si>
+  <si>
+    <t>Measure of the unipolar coils resistor</t>
+  </si>
+  <si>
+    <t>Measure of the bipolar coils resistor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +129,28 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,22 +173,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -162,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A8:D20" totalsRowShown="0">
-  <autoFilter ref="A8:D20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A8:D22" totalsRowShown="0">
+  <autoFilter ref="A8:D22"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Step number"/>
     <tableColumn id="2" name="Description of the test"/>
@@ -437,35 +497,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="129" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -494,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -508,7 +568,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -522,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -536,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -556,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -578,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -592,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -606,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -620,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -634,13 +694,54 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -649,7 +750,9 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:D6"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Documentation/Concepts.xlsx
+++ b/Documentation/Concepts.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="129" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
